--- a/datasets/dev_sft.xlsx
+++ b/datasets/dev_sft.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silly/Private/mcmcx-website/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D106D9-A3DD-3E4D-AFF5-925BC2E962C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1740" yWindow="760" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
-  <si>
-    <t>dev_sft</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>text</t>
   </si>
@@ -461,7 +467,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2067,7 +2073,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2312,10 +2318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -2323,21 +2326,22 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2409,62 +2413,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2663,7 +2718,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2681,7 +2736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2710,7 +2765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2735,7 +2790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2760,7 +2815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2785,7 +2840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2810,7 +2865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2835,7 +2890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2860,7 +2915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2885,7 +2940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2910,7 +2965,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2923,9 +2978,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2942,7 +3003,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2960,7 +3021,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2985,7 +3046,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3010,7 +3071,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3035,7 +3096,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3060,7 +3121,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3085,7 +3146,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3110,7 +3171,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3135,7 +3196,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3160,7 +3221,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3185,7 +3246,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3198,9 +3259,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3214,7 +3281,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3232,7 +3299,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3261,7 +3328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3286,7 +3353,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3311,7 +3378,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3336,7 +3403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3361,7 +3428,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3386,7 +3453,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3411,7 +3478,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3436,7 +3503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3461,7 +3528,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3474,1048 +3541,1054 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:A202"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="166.672" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="166.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:1" ht="48.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="48.8" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:1" ht="162.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="162.55" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:1" ht="119.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="119.7" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="48.6" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:1" ht="63" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="62.9" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:1" ht="77.25" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="77.15" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="60.6" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="48.6" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:1" ht="77" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="76.9" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="502.35" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" spans="1:1" ht="105.5" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="105.45" customHeight="1">
-      <c r="A13" t="s" s="7">
+    <row r="13" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="62.6" customHeight="1">
-      <c r="A14" t="s" s="7">
+    <row r="14" spans="1:1" ht="167.25" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="167.15" customHeight="1">
-      <c r="A15" t="s" s="7">
+    <row r="15" spans="1:1" ht="63" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="62.9" customHeight="1">
-      <c r="A16" t="s" s="7">
+    <row r="16" spans="1:1" ht="115.25" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="115.15" customHeight="1">
-      <c r="A17" t="s" s="7">
+    <row r="17" spans="1:1" ht="207.25" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="207.15" customHeight="1">
-      <c r="A18" t="s" s="7">
+    <row r="18" spans="1:1" ht="63" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="62.9" customHeight="1">
-      <c r="A19" t="s" s="7">
+    <row r="19" spans="1:1" ht="63" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="62.9" customHeight="1">
-      <c r="A20" t="s" s="7">
+    <row r="20" spans="1:1" ht="271.5" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="271.45" customHeight="1">
-      <c r="A21" t="s" s="7">
+    <row r="21" spans="1:1" ht="200.5" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="200.55" customHeight="1">
-      <c r="A22" t="s" s="7">
+    <row r="22" spans="1:1" ht="63" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="62.9" customHeight="1">
-      <c r="A23" t="s" s="7">
+    <row r="23" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="60.6" customHeight="1">
-      <c r="A24" t="s" s="7">
+    <row r="24" spans="1:1" ht="177.25" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" ht="177.15" customHeight="1">
-      <c r="A25" t="s" s="7">
+    <row r="25" spans="1:1" ht="146.25" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="146.3" customHeight="1">
-      <c r="A26" t="s" s="7">
+    <row r="26" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="48.6" customHeight="1">
-      <c r="A27" t="s" s="7">
+    <row r="27" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="60.6" customHeight="1">
-      <c r="A28" t="s" s="7">
+    <row r="28" spans="1:1" ht="284.75" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="284.85" customHeight="1">
-      <c r="A29" t="s" s="7">
+    <row r="29" spans="1:1" ht="63" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="62.9" customHeight="1">
-      <c r="A30" t="s" s="7">
+    <row r="30" spans="1:1" ht="63" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="62.9" customHeight="1">
-      <c r="A31" t="s" s="7">
+    <row r="31" spans="1:1" ht="260.75" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="260.85" customHeight="1">
-      <c r="A32" t="s" s="7">
+    <row r="32" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="420.6" customHeight="1">
-      <c r="A33" t="s" s="7">
+    <row r="33" spans="1:1" ht="141" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="140.9" customHeight="1">
-      <c r="A34" t="s" s="7">
+    <row r="34" spans="1:1" ht="103.5" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="103.45" customHeight="1">
-      <c r="A35" t="s" s="7">
+    <row r="35" spans="1:1" ht="105.75" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="105.7" customHeight="1">
-      <c r="A36" t="s" s="7">
+    <row r="36" spans="1:1" ht="389" customHeight="1">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="388.9" customHeight="1">
-      <c r="A37" t="s" s="7">
+    <row r="37" spans="1:1" ht="204.25" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="204.35" customHeight="1">
-      <c r="A38" t="s" s="7">
+    <row r="38" spans="1:1" ht="141.25" customHeight="1">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="141.15" customHeight="1">
-      <c r="A39" t="s" s="7">
+    <row r="39" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" ht="62.6" customHeight="1">
-      <c r="A40" t="s" s="7">
+    <row r="40" spans="1:1" ht="284.25" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="284.3" customHeight="1">
-      <c r="A41" t="s" s="7">
+    <row r="41" spans="1:1" ht="114.5" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="114.6" customHeight="1">
-      <c r="A42" t="s" s="7">
+    <row r="42" spans="1:1" ht="186.5" customHeight="1">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="186.55" customHeight="1">
-      <c r="A43" t="s" s="7">
+    <row r="43" spans="1:1" ht="190.5" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="190.6" customHeight="1">
-      <c r="A44" t="s" s="7">
+    <row r="44" spans="1:1" ht="77.25" customHeight="1">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="77.15" customHeight="1">
-      <c r="A45" t="s" s="7">
+    <row r="45" spans="1:1" ht="60.25" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" ht="60.35" customHeight="1">
-      <c r="A46" t="s" s="7">
+    <row r="46" spans="1:1" ht="102.5" customHeight="1">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="102.6" customHeight="1">
-      <c r="A47" t="s" s="7">
+    <row r="47" spans="1:1" ht="119.25" customHeight="1">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" ht="119.15" customHeight="1">
-      <c r="A48" t="s" s="7">
+    <row r="48" spans="1:1" ht="218.5" customHeight="1">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="218.6" customHeight="1">
-      <c r="A49" t="s" s="7">
+    <row r="49" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="60.6" customHeight="1">
-      <c r="A50" t="s" s="7">
+    <row r="50" spans="1:1" ht="156.5" customHeight="1">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="156.6" customHeight="1">
-      <c r="A51" t="s" s="7">
+    <row r="51" spans="1:1" ht="256.5" customHeight="1">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" ht="256.6" customHeight="1">
-      <c r="A52" t="s" s="7">
+    <row r="52" spans="1:1" ht="103.5" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" ht="103.45" customHeight="1">
-      <c r="A53" t="s" s="7">
+    <row r="53" spans="1:1" ht="75" customHeight="1">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="74.9" customHeight="1">
-      <c r="A54" t="s" s="7">
+    <row r="54" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" ht="62.6" customHeight="1">
-      <c r="A55" t="s" s="7">
+    <row r="55" spans="1:1" ht="46.25" customHeight="1">
+      <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" ht="46.35" customHeight="1">
-      <c r="A56" t="s" s="7">
+    <row r="56" spans="1:1" ht="58.25" customHeight="1">
+      <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" ht="58.35" customHeight="1">
-      <c r="A57" t="s" s="7">
+    <row r="57" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" ht="62.6" customHeight="1">
-      <c r="A58" t="s" s="7">
+    <row r="58" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" ht="62.6" customHeight="1">
-      <c r="A59" t="s" s="7">
+    <row r="59" spans="1:1" ht="63" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" ht="62.9" customHeight="1">
-      <c r="A60" t="s" s="7">
+    <row r="60" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" ht="62.6" customHeight="1">
-      <c r="A61" t="s" s="7">
+    <row r="61" spans="1:1" ht="105.25" customHeight="1">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" ht="105.15" customHeight="1">
-      <c r="A62" t="s" s="7">
+    <row r="62" spans="1:1" ht="63" customHeight="1">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" ht="62.9" customHeight="1">
-      <c r="A63" t="s" s="7">
+    <row r="63" spans="1:1" ht="145.75" customHeight="1">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" ht="145.75" customHeight="1">
-      <c r="A64" t="s" s="7">
+    <row r="64" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" ht="48.6" customHeight="1">
-      <c r="A65" t="s" s="7">
+    <row r="65" spans="1:1" ht="389.75" customHeight="1">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="389.7" customHeight="1">
-      <c r="A66" t="s" s="7">
+    <row r="66" spans="1:1" ht="75" customHeight="1">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" ht="74.9" customHeight="1">
-      <c r="A67" t="s" s="7">
+    <row r="67" spans="1:1" ht="274.5" customHeight="1">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" ht="274.55" customHeight="1">
-      <c r="A68" t="s" s="7">
+    <row r="68" spans="1:1" ht="84.25" customHeight="1">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" ht="84.35" customHeight="1">
-      <c r="A69" t="s" s="7">
+    <row r="69" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" ht="62.6" customHeight="1">
-      <c r="A70" t="s" s="7">
+    <row r="70" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="48.6" customHeight="1">
-      <c r="A71" t="s" s="7">
+    <row r="71" spans="1:1" ht="63" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" ht="62.9" customHeight="1">
-      <c r="A72" t="s" s="7">
+    <row r="72" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="590.6" customHeight="1">
-      <c r="A73" t="s" s="7">
+    <row r="73" spans="1:1" ht="144.5" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" ht="144.6" customHeight="1">
-      <c r="A74" t="s" s="7">
+    <row r="74" spans="1:1" ht="161" customHeight="1">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" ht="160.9" customHeight="1">
-      <c r="A75" t="s" s="7">
+    <row r="75" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" ht="60.6" customHeight="1">
-      <c r="A76" t="s" s="7">
+    <row r="76" spans="1:1" ht="351.75" customHeight="1">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" ht="351.75" customHeight="1">
-      <c r="A77" t="s" s="7">
+    <row r="77" spans="1:1" ht="229.25" customHeight="1">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" ht="229.15" customHeight="1">
-      <c r="A78" t="s" s="7">
+    <row r="78" spans="1:1" ht="63" customHeight="1">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" ht="62.9" customHeight="1">
-      <c r="A79" t="s" s="7">
+    <row r="79" spans="1:1" ht="232.5" customHeight="1">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="232.55" customHeight="1">
-      <c r="A80" t="s" s="7">
+    <row r="80" spans="1:1" ht="127.5" customHeight="1">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" ht="127.45" customHeight="1">
-      <c r="A81" t="s" s="7">
+    <row r="81" spans="1:1" ht="240.5" customHeight="1">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" ht="240.6" customHeight="1">
-      <c r="A82" t="s" s="7">
+    <row r="82" spans="1:1" ht="180" customHeight="1">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" ht="180" customHeight="1">
-      <c r="A83" t="s" s="7">
+    <row r="83" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" ht="48.6" customHeight="1">
-      <c r="A84" t="s" s="7">
+    <row r="84" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" ht="62.6" customHeight="1">
-      <c r="A85" t="s" s="7">
+    <row r="85" spans="1:1" ht="344.5" customHeight="1">
+      <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" ht="344.6" customHeight="1">
-      <c r="A86" t="s" s="7">
+    <row r="86" spans="1:1" ht="63" customHeight="1">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" ht="62.9" customHeight="1">
-      <c r="A87" t="s" s="7">
+    <row r="87" spans="1:1" ht="77.25" customHeight="1">
+      <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" ht="77.15" customHeight="1">
-      <c r="A88" t="s" s="7">
+    <row r="88" spans="1:1" ht="63" customHeight="1">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" ht="62.9" customHeight="1">
-      <c r="A89" t="s" s="7">
+    <row r="89" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" ht="62.6" customHeight="1">
-      <c r="A90" t="s" s="7">
+    <row r="90" spans="1:1" ht="172" customHeight="1">
+      <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" ht="172" customHeight="1">
-      <c r="A91" t="s" s="7">
+    <row r="91" spans="1:1" ht="321.75" customHeight="1">
+      <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" ht="321.75" customHeight="1">
-      <c r="A92" t="s" s="7">
+    <row r="92" spans="1:1" ht="205.75" customHeight="1">
+      <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="205.75" customHeight="1">
-      <c r="A93" t="s" s="7">
+    <row r="93" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" ht="62.6" customHeight="1">
-      <c r="A94" t="s" s="7">
+    <row r="94" spans="1:1" ht="140.5" customHeight="1">
+      <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" ht="140.6" customHeight="1">
-      <c r="A95" t="s" s="7">
+    <row r="95" spans="1:1" ht="160.5" customHeight="1">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" ht="160.55" customHeight="1">
-      <c r="A96" t="s" s="7">
+    <row r="96" spans="1:1" ht="63" customHeight="1">
+      <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="62.9" customHeight="1">
-      <c r="A97" t="s" s="7">
+    <row r="97" spans="1:1" ht="58.25" customHeight="1">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" ht="58.35" customHeight="1">
-      <c r="A98" t="s" s="7">
+    <row r="98" spans="1:1" ht="126.5" customHeight="1">
+      <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" ht="126.6" customHeight="1">
-      <c r="A99" t="s" s="7">
+    <row r="99" spans="1:1" ht="158.25" customHeight="1">
+      <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" ht="158.3" customHeight="1">
-      <c r="A100" t="s" s="7">
+    <row r="100" spans="1:1" ht="232.5" customHeight="1">
+      <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" ht="232.55" customHeight="1">
-      <c r="A101" t="s" s="7">
+    <row r="101" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="48.6" customHeight="1">
-      <c r="A102" t="s" s="7">
+    <row r="102" spans="1:1" ht="344.75" customHeight="1">
+      <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="344.85" customHeight="1">
-      <c r="A103" t="s" s="7">
+    <row r="103" spans="1:1" ht="240.75" customHeight="1">
+      <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="240.85" customHeight="1">
-      <c r="A104" t="s" s="7">
+    <row r="104" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" ht="48.6" customHeight="1">
-      <c r="A105" t="s" s="7">
+    <row r="105" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" ht="62.6" customHeight="1">
-      <c r="A106" t="s" s="7">
+    <row r="106" spans="1:1" ht="103.5" customHeight="1">
+      <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" ht="103.45" customHeight="1">
-      <c r="A107" t="s" s="7">
+    <row r="107" spans="1:1" ht="46.25" customHeight="1">
+      <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" ht="46.35" customHeight="1">
-      <c r="A108" t="s" s="7">
+    <row r="108" spans="1:1" ht="89.25" customHeight="1">
+      <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" ht="89.15" customHeight="1">
-      <c r="A109" t="s" s="7">
+    <row r="109" spans="1:1" ht="282" customHeight="1">
+      <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" ht="282" customHeight="1">
-      <c r="A110" t="s" s="7">
+    <row r="110" spans="1:1" ht="117.5" customHeight="1">
+      <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="117.45" customHeight="1">
-      <c r="A111" t="s" s="7">
+    <row r="111" spans="1:1" ht="101" customHeight="1">
+      <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" ht="100.9" customHeight="1">
-      <c r="A112" t="s" s="7">
+    <row r="112" spans="1:1" ht="63" customHeight="1">
+      <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" ht="62.9" customHeight="1">
-      <c r="A113" t="s" s="7">
+    <row r="113" spans="1:1" ht="63" customHeight="1">
+      <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" ht="62.9" customHeight="1">
-      <c r="A114" t="s" s="7">
+    <row r="114" spans="1:1" ht="140.5" customHeight="1">
+      <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" ht="140.6" customHeight="1">
-      <c r="A115" t="s" s="7">
+    <row r="115" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" ht="62.6" customHeight="1">
-      <c r="A116" t="s" s="7">
+    <row r="116" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" ht="443.45" customHeight="1">
-      <c r="A117" t="s" s="7">
+    <row r="117" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" ht="60.6" customHeight="1">
-      <c r="A118" t="s" s="7">
+    <row r="118" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" ht="48.6" customHeight="1">
-      <c r="A119" t="s" s="7">
+    <row r="119" spans="1:1" ht="258.75" customHeight="1">
+      <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" ht="258.85" customHeight="1">
-      <c r="A120" t="s" s="7">
+    <row r="120" spans="1:1" ht="146.5" customHeight="1">
+      <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" ht="146.6" customHeight="1">
-      <c r="A121" t="s" s="7">
+    <row r="121" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" ht="62.6" customHeight="1">
-      <c r="A122" t="s" s="7">
+    <row r="122" spans="1:1" ht="63" customHeight="1">
+      <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" ht="62.9" customHeight="1">
-      <c r="A123" t="s" s="7">
+    <row r="123" spans="1:1" ht="105.75" customHeight="1">
+      <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" ht="105.7" customHeight="1">
-      <c r="A124" t="s" s="7">
+    <row r="124" spans="1:1" ht="167" customHeight="1">
+      <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" ht="166.9" customHeight="1">
-      <c r="A125" t="s" s="7">
+    <row r="125" spans="1:1" ht="126.5" customHeight="1">
+      <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" ht="126.6" customHeight="1">
-      <c r="A126" t="s" s="7">
+    <row r="126" spans="1:1" ht="63" customHeight="1">
+      <c r="A126" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" ht="62.9" customHeight="1">
-      <c r="A127" t="s" s="7">
+    <row r="127" spans="1:1" ht="58.25" customHeight="1">
+      <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" ht="58.35" customHeight="1">
-      <c r="A128" t="s" s="7">
+    <row r="128" spans="1:1" ht="167" customHeight="1">
+      <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" ht="166.9" customHeight="1">
-      <c r="A129" t="s" s="7">
+    <row r="129" spans="1:1" ht="141.5" customHeight="1">
+      <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" ht="141.45" customHeight="1">
-      <c r="A130" t="s" s="7">
+    <row r="130" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" ht="48.6" customHeight="1">
-      <c r="A131" t="s" s="7">
+    <row r="131" spans="1:1" ht="91.5" customHeight="1">
+      <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" ht="91.45" customHeight="1">
-      <c r="A132" t="s" s="7">
+    <row r="132" spans="1:1" ht="176.75" customHeight="1">
+      <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" ht="176.85" customHeight="1">
-      <c r="A133" t="s" s="7">
+    <row r="133" spans="1:1" ht="103" customHeight="1">
+      <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" ht="102.9" customHeight="1">
-      <c r="A134" t="s" s="7">
+    <row r="134" spans="1:1" ht="105.75" customHeight="1">
+      <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" ht="105.7" customHeight="1">
-      <c r="A135" t="s" s="7">
+    <row r="135" spans="1:1" ht="134.25" customHeight="1">
+      <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="134.3" customHeight="1">
-      <c r="A136" t="s" s="7">
+    <row r="136" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" ht="1034.75" customHeight="1">
-      <c r="A137" t="s" s="7">
+    <row r="137" spans="1:1" ht="140.5" customHeight="1">
+      <c r="A137" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" ht="140.6" customHeight="1">
-      <c r="A138" t="s" s="7">
+    <row r="138" spans="1:1" ht="172.25" customHeight="1">
+      <c r="A138" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" ht="172.3" customHeight="1">
-      <c r="A139" t="s" s="7">
+    <row r="139" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" ht="62.6" customHeight="1">
-      <c r="A140" t="s" s="7">
+    <row r="140" spans="1:1" ht="192.5" customHeight="1">
+      <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" ht="192.6" customHeight="1">
-      <c r="A141" t="s" s="7">
+    <row r="141" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="48.6" customHeight="1">
-      <c r="A142" t="s" s="7">
+    <row r="142" spans="1:1" ht="63" customHeight="1">
+      <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" ht="62.9" customHeight="1">
-      <c r="A143" t="s" s="7">
+    <row r="143" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" ht="60.6" customHeight="1">
-      <c r="A144" t="s" s="7">
+    <row r="144" spans="1:1" ht="63" customHeight="1">
+      <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" ht="62.9" customHeight="1">
-      <c r="A145" t="s" s="7">
+    <row r="145" spans="1:1" ht="120" customHeight="1">
+      <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" ht="120" customHeight="1">
-      <c r="A146" t="s" s="7">
+    <row r="146" spans="1:1" ht="206" customHeight="1">
+      <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" ht="206" customHeight="1">
-      <c r="A147" t="s" s="7">
+    <row r="147" spans="1:1" ht="91" customHeight="1">
+      <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" ht="90.9" customHeight="1">
-      <c r="A148" t="s" s="7">
+    <row r="148" spans="1:1" ht="222.5" customHeight="1">
+      <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" ht="222.6" customHeight="1">
-      <c r="A149" t="s" s="7">
+    <row r="149" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" ht="639.1" customHeight="1">
-      <c r="A150" t="s" s="7">
+    <row r="150" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" ht="60.6" customHeight="1">
-      <c r="A151" t="s" s="7">
+    <row r="151" spans="1:1" ht="134" customHeight="1">
+      <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" ht="134" customHeight="1">
-      <c r="A152" t="s" s="7">
+    <row r="152" spans="1:1" ht="63" customHeight="1">
+      <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" ht="62.9" customHeight="1">
-      <c r="A153" t="s" s="7">
+    <row r="153" spans="1:1" ht="63" customHeight="1">
+      <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="62.9" customHeight="1">
-      <c r="A154" t="s" s="7">
+    <row r="154" spans="1:1" ht="258.5" customHeight="1">
+      <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" ht="258.55" customHeight="1">
-      <c r="A155" t="s" s="7">
+    <row r="155" spans="1:1" ht="63" customHeight="1">
+      <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" ht="62.9" customHeight="1">
-      <c r="A156" t="s" s="7">
+    <row r="156" spans="1:1" ht="118.5" customHeight="1">
+      <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" ht="118.6" customHeight="1">
-      <c r="A157" t="s" s="7">
+    <row r="157" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="62.6" customHeight="1">
-      <c r="A158" t="s" s="7">
+    <row r="158" spans="1:1" ht="332" customHeight="1">
+      <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="331.9" customHeight="1">
-      <c r="A159" t="s" s="7">
+    <row r="159" spans="1:1" ht="77.25" customHeight="1">
+      <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" ht="77.15" customHeight="1">
-      <c r="A160" t="s" s="7">
+    <row r="160" spans="1:1" ht="191.25" customHeight="1">
+      <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="191.15" customHeight="1">
-      <c r="A161" t="s" s="7">
+    <row r="161" spans="1:1" ht="77.25" customHeight="1">
+      <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" ht="77.15" customHeight="1">
-      <c r="A162" t="s" s="7">
+    <row r="162" spans="1:1" ht="115" customHeight="1">
+      <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" ht="114.9" customHeight="1">
-      <c r="A163" t="s" s="7">
+    <row r="163" spans="1:1" ht="148.5" customHeight="1">
+      <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" ht="148.55" customHeight="1">
-      <c r="A164" t="s" s="7">
+    <row r="164" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" ht="62.6" customHeight="1">
-      <c r="A165" t="s" s="7">
+    <row r="165" spans="1:1" ht="63" customHeight="1">
+      <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" ht="62.9" customHeight="1">
-      <c r="A166" t="s" s="7">
+    <row r="166" spans="1:1" ht="104.5" customHeight="1">
+      <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" ht="104.6" customHeight="1">
-      <c r="A167" t="s" s="7">
+    <row r="167" spans="1:1" ht="63" customHeight="1">
+      <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" ht="62.9" customHeight="1">
-      <c r="A168" t="s" s="7">
+    <row r="168" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" ht="48.6" customHeight="1">
-      <c r="A169" t="s" s="7">
+    <row r="169" spans="1:1" ht="100.5" customHeight="1">
+      <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" ht="100.6" customHeight="1">
-      <c r="A170" t="s" s="7">
+    <row r="170" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" ht="62.6" customHeight="1">
-      <c r="A171" t="s" s="7">
+    <row r="171" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" ht="62.6" customHeight="1">
-      <c r="A172" t="s" s="7">
+    <row r="172" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" ht="62.6" customHeight="1">
-      <c r="A173" t="s" s="7">
+    <row r="173" spans="1:1" ht="124.5" customHeight="1">
+      <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" ht="124.6" customHeight="1">
-      <c r="A174" t="s" s="7">
+    <row r="174" spans="1:1" ht="89.25" customHeight="1">
+      <c r="A174" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" ht="89.15" customHeight="1">
-      <c r="A175" t="s" s="7">
+    <row r="175" spans="1:1" ht="77" customHeight="1">
+      <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" ht="76.9" customHeight="1">
-      <c r="A176" t="s" s="7">
+    <row r="176" spans="1:1" ht="72.5" customHeight="1">
+      <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" ht="72.6" customHeight="1">
-      <c r="A177" t="s" s="7">
+    <row r="177" spans="1:1" ht="89" customHeight="1">
+      <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" ht="88.9" customHeight="1">
-      <c r="A178" t="s" s="7">
+    <row r="178" spans="1:1" ht="101.25" customHeight="1">
+      <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" ht="101.15" customHeight="1">
-      <c r="A179" t="s" s="7">
+    <row r="179" spans="1:1" ht="200.5" customHeight="1">
+      <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" ht="200.6" customHeight="1">
-      <c r="A180" t="s" s="7">
+    <row r="180" spans="1:1" ht="120" customHeight="1">
+      <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" ht="120" customHeight="1">
-      <c r="A181" t="s" s="7">
+    <row r="181" spans="1:1" ht="72.5" customHeight="1">
+      <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" ht="72.6" customHeight="1">
-      <c r="A182" t="s" s="7">
+    <row r="182" spans="1:1" ht="120" customHeight="1">
+      <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" ht="120" customHeight="1">
-      <c r="A183" t="s" s="7">
+    <row r="183" spans="1:1" ht="258.5" customHeight="1">
+      <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" ht="258.55" customHeight="1">
-      <c r="A184" t="s" s="7">
+    <row r="184" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" ht="62.6" customHeight="1">
-      <c r="A185" t="s" s="7">
+    <row r="185" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" ht="48.6" customHeight="1">
-      <c r="A186" t="s" s="7">
+    <row r="186" spans="1:1" ht="58.25" customHeight="1">
+      <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" ht="58.35" customHeight="1">
-      <c r="A187" t="s" s="7">
+    <row r="187" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" ht="62.6" customHeight="1">
-      <c r="A188" t="s" s="7">
+    <row r="188" spans="1:1" ht="58.25" customHeight="1">
+      <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" ht="58.35" customHeight="1">
-      <c r="A189" t="s" s="7">
+    <row r="189" spans="1:1" ht="48.5" customHeight="1">
+      <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" ht="48.6" customHeight="1">
-      <c r="A190" t="s" s="7">
+    <row r="190" spans="1:1" ht="62.5" customHeight="1">
+      <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" ht="62.6" customHeight="1">
-      <c r="A191" t="s" s="7">
+    <row r="191" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" ht="491.95" customHeight="1">
-      <c r="A192" t="s" s="7">
+    <row r="192" spans="1:1" ht="178.5" customHeight="1">
+      <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" ht="178.6" customHeight="1">
-      <c r="A193" t="s" s="7">
+    <row r="193" spans="1:1" ht="105.75" customHeight="1">
+      <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" ht="105.7" customHeight="1">
-      <c r="A194" t="s" s="7">
+    <row r="194" spans="1:1" ht="166.5" customHeight="1">
+      <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" ht="166.6" customHeight="1">
-      <c r="A195" t="s" s="7">
+    <row r="195" spans="1:1" ht="63" customHeight="1">
+      <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" ht="62.9" customHeight="1">
-      <c r="A196" t="s" s="7">
+    <row r="196" spans="1:1" ht="60.5" customHeight="1">
+      <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" ht="60.6" customHeight="1">
-      <c r="A197" t="s" s="7">
+    <row r="197" spans="1:1" ht="91.5" customHeight="1">
+      <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" ht="91.45" customHeight="1">
-      <c r="A198" t="s" s="7">
+    <row r="198" spans="1:1" ht="89" customHeight="1">
+      <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" ht="88.9" customHeight="1">
-      <c r="A199" t="s" s="7">
+    <row r="199" spans="1:1" ht="183.75" customHeight="1">
+      <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" ht="183.75" customHeight="1">
-      <c r="A200" t="s" s="7">
+    <row r="200" spans="1:1" ht="75" customHeight="1">
+      <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" ht="74.9" customHeight="1">
-      <c r="A201" t="s" s="7">
+    <row r="201" spans="1:1" ht="409.6" customHeight="1">
+      <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" ht="457.95" customHeight="1">
-      <c r="A202" t="s" s="7">
-        <v>201</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1" location="" tooltip="" display="xxx@xx.com"/>
-    <hyperlink ref="A202" r:id="rId2" location="" tooltip="" display="liming@example.com"/>
+    <hyperlink ref="A44" r:id="rId1" display="xxx@xx.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A201" r:id="rId2" display="liming@example.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
